--- a/biology/Botanique/Chaetomorpha/Chaetomorpha.xlsx
+++ b/biology/Botanique/Chaetomorpha/Chaetomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetomorpha est un genre d’algues vertes de la famille des Cladophoraceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre chaetomorpha, composé du préfixe "chaet-", « poil ; crin », et du suffixe "-morph", « en forme de », signifie littéralement « en forme de poils raides »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre chaetomorpha, composé du préfixe "chaet-", « poil ; crin », et du suffixe "-morph", « en forme de », signifie littéralement « en forme de poils raides ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des algues filamenteuses pas ou peu ramifiées, formant des touffes de filaments, chaque filament étant constitué d'une file unique de cellules cylindriques, longues, à nombreux noyaux et à chloroplaste réticulé. Ces cellules, qui sont souvent de grande dimension, sont parfois visibles à la loupe, voire à l'œil nu[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des algues filamenteuses pas ou peu ramifiées, formant des touffes de filaments, chaque filament étant constitué d'une file unique de cellules cylindriques, longues, à nombreux noyaux et à chloroplaste réticulé. Ces cellules, qui sont souvent de grande dimension, sont parfois visibles à la loupe, voire à l'œil nu.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces algues alternent de façon égale une phase haploïde et une phase diploïde, et une génération sporophyte et une génération gamétophyte qui sont isomorphes. Elles n'ont pas tendance à la prolifération[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces algues alternent de façon égale une phase haploïde et une phase diploïde, et une génération sporophyte et une génération gamétophyte qui sont isomorphes. Elles n'ont pas tendance à la prolifération.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 juin 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 juin 2013) :
 Chaetomorpha adriani Feldmann
 Chaetomorpha aerea (Dillwyn) Kützing
 Chaetomorpha akineta M.A.Sahito, Z.A.Nizamani &amp; S.M.Leghari
@@ -683,7 +703,7 @@
 Chaetomorpha valida (J.D.Hooker &amp; Harvey) Kützing
 Chaetomorpha vieillardii (Kützing) M.J.Wynne
 Chaetomorpha zernovii Woronichin
-Selon ITIS      (5 juin 2013)[3] :
+Selon ITIS      (5 juin 2013) :
 Chaetomorpha aerea (Dill.) Kuetz
 Chaetomorpha antennina (Bory) Kuetz.
 Chaetomorpha brachygona Harvey
@@ -722,9 +742,11 @@
           <t>Les Chaetomorpha et l'homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces de Chaetomorpha sont consommées en Asie (Chine, Philippines) sous le nom de "spaghettis de mer"[1]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de Chaetomorpha sont consommées en Asie (Chine, Philippines) sous le nom de "spaghettis de mer". 
 </t>
         </is>
       </c>
